--- a/Server/API Document.xlsx
+++ b/Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Function Category</t>
   </si>
@@ -71,6 +71,31 @@
   <si>
     <t>key : Type
 key2 : Type2</t>
+  </si>
+  <si>
+    <t>계정</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/auth/signin</t>
+  </si>
+  <si>
+    <t>id: String
+pw: String</t>
+  </si>
+  <si>
+    <t>로그인 실패 시 204</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>/auth/signup</t>
+  </si>
+  <si>
+    <t>아이디가 겹칠 경우 204</t>
   </si>
 </sst>
 </file>
@@ -115,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,6 +222,82 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Server/API Document.xlsx
+++ b/Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Function Category</t>
   </si>
@@ -71,6 +71,22 @@
   <si>
     <t>key : Type
 key2 : Type2</t>
+  </si>
+  <si>
+    <t>급식</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/meal</t>
+  </si>
+  <si>
+    <t>date: String
+(YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>해당 급식 정보 없을 때 204</t>
   </si>
   <si>
     <t>계정</t>
@@ -140,7 +156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,10 +243,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -245,7 +261,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -262,16 +278,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -280,7 +296,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
         <v>201.0</v>
@@ -295,7 +311,45 @@
         <v>204.0</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Server/API Document.xlsx
+++ b/Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Function Category</t>
   </si>
@@ -50,36 +50,16 @@
     <t>ETC</t>
   </si>
   <si>
-    <t>기능 이름</t>
-  </si>
-  <si>
-    <t>요약</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>/sample</t>
-  </si>
-  <si>
-    <t>key : Type
-key2 : Typ2</t>
+    <t>급식</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/meal</t>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>key : Type
-key2 : Type2</t>
-  </si>
-  <si>
-    <t>급식</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>/meal</t>
   </si>
   <si>
     <t>date: String
@@ -87,6 +67,17 @@
   </si>
   <si>
     <t>해당 급식 정보 없을 때 204</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>date: String
+type: String
+(breakfast
+lunch
+dinner)
+index: int(zero-based)</t>
   </si>
   <si>
     <t>계정</t>
@@ -205,31 +196,31 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>204.0</v>
@@ -240,116 +231,116 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
       <c r="H3" t="n">
         <v>200.0</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
         <v>204.0</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>201.0</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>204.0</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>201.0</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
         <v>204.0</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
